--- a/excels/20240108_votingpower_KSM.xlsx
+++ b/excels/20240108_votingpower_KSM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffael\Documents\Amforc\Research\Voting Power Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raffael\Documents\Amforc\Research\Voting Power Analysis\voting-power\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{629CA40C-4B26-44DA-8A62-C8847D073004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3B8C86-BD3C-4527-A112-8FD9A05890F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="treasurer" sheetId="3" r:id="rId1"/>
@@ -44,10 +44,21 @@
     <definedName name="ExternalData_8" localSheetId="2" hidden="1">medium_spender!$A$1:$D$49</definedName>
     <definedName name="ExternalData_9" localSheetId="12" hidden="1">referendum_canceller!$A$1:$D$61</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -758,7 +769,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1000,7 +1017,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{14EEE792-033C-41BB-B44C-470E8A5A713D}" name="_20240108_kusama_90_days_treasurer_voting_power" displayName="_20240108_kusama_90_days_treasurer_voting_power" ref="A1:D43" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D43" xr:uid="{14EEE792-033C-41BB-B44C-470E8A5A713D}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C4E810E7-4172-4D69-AF5C-144E58655098}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{C4E810E7-4172-4D69-AF5C-144E58655098}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{EF522313-3747-44FC-B109-252FC67AA97A}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{B5E4C600-08A9-4A8F-9989-D4077CDA0406}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{945727C0-F765-48F0-885C-BE57A27BAC70}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1013,7 +1030,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{243DBD85-38AD-4414-ACE3-0239AADF917C}" name="_20240108_kusama_90_days_general_admin_voting_power" displayName="_20240108_kusama_90_days_general_admin_voting_power" ref="A1:D70" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D70" xr:uid="{243DBD85-38AD-4414-ACE3-0239AADF917C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4C1499D5-FA96-4BFB-BC30-4AA95224774E}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{4C1499D5-FA96-4BFB-BC30-4AA95224774E}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{011736B2-5961-400E-8A6E-75260D495484}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D91CA0C4-A483-4D3B-99DE-944739427528}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{8D3BEDEF-2E9D-4F88-AEEF-86A0DF6967EE}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1026,7 +1043,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1B0C8FA8-D489-4457-B727-7C186DFD8883}" name="_20240108_kusama_90_days_lease_admin_voting_power" displayName="_20240108_kusama_90_days_lease_admin_voting_power" ref="A1:D84" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D84" xr:uid="{1B0C8FA8-D489-4457-B727-7C186DFD8883}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67EF7039-3421-433B-A562-D5ACA3611D33}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{67EF7039-3421-433B-A562-D5ACA3611D33}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{D1AA559F-7806-45F8-9CB4-D00123D2E929}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{F8EDBBFA-63B0-4257-AA91-A664DCC1A33C}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{025D4F58-ED89-49D8-A16D-D653EC35933B}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1039,7 +1056,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5DA7DE81-4F8A-43E3-A5AF-6CBC23F47091}" name="_20240108_kusama_90_days_staking_admin_voting_power" displayName="_20240108_kusama_90_days_staking_admin_voting_power" ref="A1:D59" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D59" xr:uid="{5DA7DE81-4F8A-43E3-A5AF-6CBC23F47091}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CE0D30FE-2657-439C-B9C6-FEFEE1EF6F77}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{CE0D30FE-2657-439C-B9C6-FEFEE1EF6F77}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{BE8A3718-736C-4587-86C2-2FC9BC54CBF9}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{32F126FC-A7F5-4E61-AFD6-C403A76A5026}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{3D68B8B3-8AA4-4C22-9134-87740989AF22}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1052,7 +1069,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C685B39E-F11D-489D-A219-E2EC4E4DF8AB}" name="_20240108_kusama_90_days_referendum_canceller_voting_power" displayName="_20240108_kusama_90_days_referendum_canceller_voting_power" ref="A1:D61" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D61" xr:uid="{C685B39E-F11D-489D-A219-E2EC4E4DF8AB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{27FFB5C6-DD7A-4A4B-8537-96599F8C0D1C}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{27FFB5C6-DD7A-4A4B-8537-96599F8C0D1C}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{77350374-99E8-44E9-8060-F5F2D13729F0}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{585A2EA0-C659-402F-A825-C0230DCB56E8}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{9CBE3BC0-3CA1-4FD5-B619-BA9664E4D976}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1065,7 +1082,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E7CFDF9F-D734-4250-AC22-A76047495C28}" name="_20240108_kusama_90_days_referendum_killer_voting_power" displayName="_20240108_kusama_90_days_referendum_killer_voting_power" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D39" xr:uid="{E7CFDF9F-D734-4250-AC22-A76047495C28}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB39CF46-F54B-4781-AAF6-5A2DB005490F}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{FB39CF46-F54B-4781-AAF6-5A2DB005490F}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{56F36B21-B89E-4D6B-88EF-1B347E18D569}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{3BC0DDF6-33A7-4DA3-87B1-FE504F8F9B62}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{7FD1BB16-F20D-4F18-8C27-F8475938EE8A}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1075,26 +1092,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3FACD540-8E9C-4497-AEED-918889A4C4C4}" name="_20240108_kusama_90_days_big_spender_voting_power" displayName="_20240108_kusama_90_days_big_spender_voting_power" ref="A1:D49" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{3FACD540-8E9C-4497-AEED-918889A4C4C4}" name="_20240108_kusama_90_days_big_spender_voting_power" displayName="_20240108_kusama_90_days_big_spender_voting_power" ref="A1:D50" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:D49" xr:uid="{3FACD540-8E9C-4497-AEED-918889A4C4C4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CDCCDB79-2C04-4AFE-871D-72059F8F6443}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{A5BCDBF4-7B96-4FCE-BFA9-39011E2557F3}" uniqueName="2" name="weight" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{D1DC4B2D-CE2D-4360-B7D9-F69993B8BC3D}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{D4192E5C-5662-4FD9-8623-74FBEA02E2FE}" uniqueName="4" name="power" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{CDCCDB79-2C04-4AFE-871D-72059F8F6443}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A5BCDBF4-7B96-4FCE-BFA9-39011E2557F3}" uniqueName="2" name="weight" totalsRowFunction="sum" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{D1DC4B2D-CE2D-4360-B7D9-F69993B8BC3D}" uniqueName="3" name="weight_fraction" totalsRowFunction="sum" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{D4192E5C-5662-4FD9-8623-74FBEA02E2FE}" uniqueName="4" name="power" totalsRowFunction="sum" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{80A309C8-A72C-439B-B036-EA890880DE78}" name="_20240108_kusama_90_days_medium_spender_voting_power" displayName="_20240108_kusama_90_days_medium_spender_voting_power" ref="A1:D49" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{80A309C8-A72C-439B-B036-EA890880DE78}" name="_20240108_kusama_90_days_medium_spender_voting_power" displayName="_20240108_kusama_90_days_medium_spender_voting_power" ref="A1:D50" tableType="queryTable" totalsRowCount="1">
   <autoFilter ref="A1:D49" xr:uid="{80A309C8-A72C-439B-B036-EA890880DE78}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C8FB982A-05B2-4439-874B-E36378C75A43}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{88CD1022-6FA7-4C63-93E7-5BAB12B2AAA4}" uniqueName="2" name="weight" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{74284B19-1EDA-4E40-B297-0CB9339DA601}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{F94E2A24-952A-4DE3-804A-B4E11B5ACE29}" uniqueName="4" name="power" queryTableFieldId="4"/>
+    <tableColumn id="1" xr3:uid="{C8FB982A-05B2-4439-874B-E36378C75A43}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="13" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{88CD1022-6FA7-4C63-93E7-5BAB12B2AAA4}" uniqueName="2" name="weight" totalsRowFunction="sum" queryTableFieldId="2"/>
+    <tableColumn id="3" xr3:uid="{74284B19-1EDA-4E40-B297-0CB9339DA601}" uniqueName="3" name="weight_fraction" totalsRowFunction="sum" queryTableFieldId="3"/>
+    <tableColumn id="4" xr3:uid="{F94E2A24-952A-4DE3-804A-B4E11B5ACE29}" uniqueName="4" name="power" totalsRowFunction="sum" queryTableFieldId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,7 +1121,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{179EAABF-3C3D-450E-A32E-8791C28B0DC2}" name="_20240108_kusama_90_days_small_spender_voting_power" displayName="_20240108_kusama_90_days_small_spender_voting_power" ref="A1:D39" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D39" xr:uid="{179EAABF-3C3D-450E-A32E-8791C28B0DC2}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6A5198FF-0C60-44FD-B29C-6BC9B21D106C}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{6A5198FF-0C60-44FD-B29C-6BC9B21D106C}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{E53D7CAB-B5F1-4337-88AF-D82910896287}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{7F5F56C7-F71F-48B6-B922-F297A50BFFAC}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{019CC0B5-2572-4EB0-AF00-A02E7894C276}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1117,7 +1134,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{07BC836C-24CE-484A-BC46-936523A46D4C}" name="_20240108_kusama_90_days_big_tipper_voting_power" displayName="_20240108_kusama_90_days_big_tipper_voting_power" ref="A1:D75" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D75" xr:uid="{07BC836C-24CE-484A-BC46-936523A46D4C}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4D5BAD27-068B-47C8-BE3E-2B946364A5D4}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{4D5BAD27-068B-47C8-BE3E-2B946364A5D4}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{39FB4A88-6F89-433F-ACA7-C3336C1E7873}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{5FA48934-4AEC-42FF-94FC-A1BBE98EEC82}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{D12B83D8-1558-4F96-844D-9432B6B36AEA}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1143,7 +1160,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B6961878-611A-40F3-AC39-12617DB357EF}" name="_20240108_kusama_90_days_root_voting_power" displayName="_20240108_kusama_90_days_root_voting_power" ref="A1:D41" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D41" xr:uid="{B6961878-611A-40F3-AC39-12617DB357EF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4B385AA8-D55C-4F0E-A3DF-B2B14AF9ABBD}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4B385AA8-D55C-4F0E-A3DF-B2B14AF9ABBD}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{419999F8-75BA-4D34-84F4-9F9BCB8E07A1}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{C317C244-A0D4-46B3-971D-C8D30DC99ACD}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{EC3A7703-1C2A-470D-933F-C085F6110448}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1156,7 +1173,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E4971D2-7DCE-4429-9923-BB3EB869D674}" name="_20240108_kusama_90_days_whitelisted_caller_voting_power" displayName="_20240108_kusama_90_days_whitelisted_caller_voting_power" ref="A1:D62" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D62" xr:uid="{3E4971D2-7DCE-4429-9923-BB3EB869D674}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4495388B-859C-4ACF-9C20-8FB071CF0216}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{4495388B-859C-4ACF-9C20-8FB071CF0216}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{948515F6-CF7B-4F3F-A742-C78C3841BC1E}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{567376D3-B1CA-4965-9AC3-87C595974BE9}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{0C306E57-6F60-4455-BAFC-69D827F6880A}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1169,7 +1186,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{83767E63-A62B-4DA7-AA62-4F862E37ACF7}" name="_20240108_kusama_90_days_auction_admin_voting_power" displayName="_20240108_kusama_90_days_auction_admin_voting_power" ref="A1:D31" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:D31" xr:uid="{83767E63-A62B-4DA7-AA62-4F862E37ACF7}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CD41480D-2FD8-4D95-96DE-8AE0CEC1A99F}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CD41480D-2FD8-4D95-96DE-8AE0CEC1A99F}" uniqueName="1" name="address" queryTableFieldId="1" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{1FB309B1-4CCD-4DE3-A595-FB416255B5B8}" uniqueName="2" name="weight" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{6C178DBC-12B0-4D46-B2D9-4DECDF92D1F1}" uniqueName="3" name="weight_fraction" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{BEC43FD3-B1A0-46BA-AD7F-141B6A843FB4}" uniqueName="4" name="power" queryTableFieldId="4"/>
@@ -1468,7 +1485,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>65</v>
       </c>
       <c r="B2">
@@ -1482,7 +1499,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -1496,7 +1513,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -1510,7 +1527,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>50</v>
       </c>
       <c r="B5">
@@ -1524,7 +1541,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
@@ -1538,7 +1555,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7">
@@ -1552,7 +1569,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8">
@@ -1566,7 +1583,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
@@ -1580,7 +1597,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>31</v>
       </c>
       <c r="B10">
@@ -1594,7 +1611,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -1608,7 +1625,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -1622,7 +1639,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13">
@@ -1636,7 +1653,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -1650,7 +1667,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
@@ -1664,7 +1681,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
@@ -1678,7 +1695,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
       <c r="B17">
@@ -1692,7 +1709,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
       <c r="B18">
@@ -1706,7 +1723,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19">
@@ -1720,7 +1737,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20">
@@ -1734,7 +1751,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21">
@@ -1748,7 +1765,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>57</v>
       </c>
       <c r="B22">
@@ -1762,7 +1779,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>56</v>
       </c>
       <c r="B23">
@@ -1776,7 +1793,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>29</v>
       </c>
       <c r="B24">
@@ -1790,7 +1807,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>38</v>
       </c>
       <c r="B25">
@@ -1804,7 +1821,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
       <c r="B26">
@@ -1818,7 +1835,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
       <c r="B27">
@@ -1832,7 +1849,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>45</v>
       </c>
       <c r="B28">
@@ -1846,7 +1863,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29">
@@ -1860,7 +1877,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30">
@@ -1874,7 +1891,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31">
@@ -1888,7 +1905,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>67</v>
       </c>
       <c r="B32">
@@ -1902,7 +1919,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33">
@@ -1916,7 +1933,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>68</v>
       </c>
       <c r="B34">
@@ -1930,7 +1947,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>64</v>
       </c>
       <c r="B35">
@@ -1944,7 +1961,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>69</v>
       </c>
       <c r="B36">
@@ -1958,7 +1975,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
       <c r="B37">
@@ -1972,7 +1989,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>71</v>
       </c>
       <c r="B38">
@@ -1986,7 +2003,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>72</v>
       </c>
       <c r="B39">
@@ -2000,7 +2017,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>73</v>
       </c>
       <c r="B40">
@@ -2014,7 +2031,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
       <c r="B41">
@@ -2028,7 +2045,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>75</v>
       </c>
       <c r="B42">
@@ -2042,7 +2059,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>76</v>
       </c>
       <c r="B43">
@@ -2092,7 +2109,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -2106,7 +2123,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -2120,7 +2137,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
       <c r="B4">
@@ -2134,7 +2151,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -2148,7 +2165,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -2162,7 +2179,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>62</v>
       </c>
       <c r="B7">
@@ -2176,7 +2193,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8">
@@ -2190,7 +2207,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
       <c r="B9">
@@ -2204,7 +2221,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>191</v>
       </c>
       <c r="B10">
@@ -2218,7 +2235,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>74</v>
       </c>
       <c r="B11">
@@ -2232,7 +2249,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -2246,7 +2263,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13">
@@ -2260,7 +2277,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14">
@@ -2274,7 +2291,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
       <c r="B15">
@@ -2288,7 +2305,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
       <c r="B16">
@@ -2302,7 +2319,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>81</v>
       </c>
       <c r="B17">
@@ -2316,7 +2333,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
       <c r="B18">
@@ -2330,7 +2347,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>82</v>
       </c>
       <c r="B19">
@@ -2344,7 +2361,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>83</v>
       </c>
       <c r="B20">
@@ -2358,7 +2375,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>78</v>
       </c>
       <c r="B21">
@@ -2372,7 +2389,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
       <c r="B22">
@@ -2386,7 +2403,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
       <c r="B23">
@@ -2400,7 +2417,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>88</v>
       </c>
       <c r="B24">
@@ -2414,7 +2431,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
       <c r="B25">
@@ -2428,7 +2445,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>89</v>
       </c>
       <c r="B26">
@@ -2442,7 +2459,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>192</v>
       </c>
       <c r="B27">
@@ -2456,7 +2473,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>86</v>
       </c>
       <c r="B28">
@@ -2470,7 +2487,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>193</v>
       </c>
       <c r="B29">
@@ -2484,7 +2501,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>90</v>
       </c>
       <c r="B30">
@@ -2498,7 +2515,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>91</v>
       </c>
       <c r="B31">
@@ -2512,7 +2529,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>123</v>
       </c>
       <c r="B32">
@@ -2526,7 +2543,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33">
@@ -2540,7 +2557,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>93</v>
       </c>
       <c r="B34">
@@ -2554,7 +2571,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>76</v>
       </c>
       <c r="B35">
@@ -2568,7 +2585,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>94</v>
       </c>
       <c r="B36">
@@ -2582,7 +2599,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>95</v>
       </c>
       <c r="B37">
@@ -2596,7 +2613,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -2610,7 +2627,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>97</v>
       </c>
       <c r="B39">
@@ -2624,7 +2641,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>99</v>
       </c>
       <c r="B40">
@@ -2638,7 +2655,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>98</v>
       </c>
       <c r="B41">
@@ -2652,7 +2669,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>108</v>
       </c>
       <c r="B42">
@@ -2666,7 +2683,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>106</v>
       </c>
       <c r="B43">
@@ -2680,7 +2697,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
       <c r="B44">
@@ -2694,7 +2711,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>107</v>
       </c>
       <c r="B45">
@@ -2708,7 +2725,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>104</v>
       </c>
       <c r="B46">
@@ -2722,7 +2739,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>103</v>
       </c>
       <c r="B47">
@@ -2736,7 +2753,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>113</v>
       </c>
       <c r="B48">
@@ -2750,7 +2767,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>112</v>
       </c>
       <c r="B49">
@@ -2764,7 +2781,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>114</v>
       </c>
       <c r="B50">
@@ -2778,7 +2795,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>194</v>
       </c>
       <c r="B51">
@@ -2792,7 +2809,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>115</v>
       </c>
       <c r="B52">
@@ -2806,7 +2823,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>116</v>
       </c>
       <c r="B53">
@@ -2820,7 +2837,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>156</v>
       </c>
       <c r="B54">
@@ -2834,7 +2851,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>119</v>
       </c>
       <c r="B55">
@@ -2848,7 +2865,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>129</v>
       </c>
       <c r="B56">
@@ -2862,7 +2879,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>130</v>
       </c>
       <c r="B57">
@@ -2876,7 +2893,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>120</v>
       </c>
       <c r="B58">
@@ -2890,7 +2907,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>131</v>
       </c>
       <c r="B59">
@@ -2904,7 +2921,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>117</v>
       </c>
       <c r="B60">
@@ -2918,7 +2935,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>132</v>
       </c>
       <c r="B61">
@@ -2932,7 +2949,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>195</v>
       </c>
       <c r="B62">
@@ -2946,7 +2963,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>125</v>
       </c>
       <c r="B63">
@@ -2960,7 +2977,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>134</v>
       </c>
       <c r="B64">
@@ -2974,7 +2991,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>162</v>
       </c>
       <c r="B65">
@@ -2988,7 +3005,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>163</v>
       </c>
       <c r="B66">
@@ -3002,7 +3019,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>124</v>
       </c>
       <c r="B67">
@@ -3016,7 +3033,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>171</v>
       </c>
       <c r="B68">
@@ -3030,7 +3047,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>121</v>
       </c>
       <c r="B69">
@@ -3044,7 +3061,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>172</v>
       </c>
       <c r="B70">
@@ -3069,7 +3086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977B6573-6206-499F-9972-9C5452634887}">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
@@ -3096,7 +3113,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
       <c r="B2">
@@ -3110,7 +3127,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -3124,7 +3141,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>58</v>
       </c>
       <c r="B4">
@@ -3138,7 +3155,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>62</v>
       </c>
       <c r="B5">
@@ -3152,7 +3169,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -3166,7 +3183,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7">
@@ -3180,7 +3197,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>69</v>
       </c>
       <c r="B8">
@@ -3194,7 +3211,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
       <c r="B9">
@@ -3208,7 +3225,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>57</v>
       </c>
       <c r="B10">
@@ -3222,7 +3239,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11">
@@ -3236,7 +3253,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>76</v>
       </c>
       <c r="B12">
@@ -3250,7 +3267,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>142</v>
       </c>
       <c r="B13">
@@ -3264,7 +3281,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14">
@@ -3278,7 +3295,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>75</v>
       </c>
       <c r="B15">
@@ -3292,7 +3309,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>79</v>
       </c>
       <c r="B16">
@@ -3306,7 +3323,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>121</v>
       </c>
       <c r="B17">
@@ -3320,7 +3337,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>80</v>
       </c>
       <c r="B18">
@@ -3334,7 +3351,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
       <c r="B19">
@@ -3348,7 +3365,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>78</v>
       </c>
       <c r="B20">
@@ -3362,7 +3379,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>87</v>
       </c>
       <c r="B21">
@@ -3376,7 +3393,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>84</v>
       </c>
       <c r="B22">
@@ -3390,7 +3407,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>124</v>
       </c>
       <c r="B23">
@@ -3404,7 +3421,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>88</v>
       </c>
       <c r="B24">
@@ -3418,7 +3435,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>123</v>
       </c>
       <c r="B25">
@@ -3432,7 +3449,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>85</v>
       </c>
       <c r="B26">
@@ -3446,7 +3463,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>89</v>
       </c>
       <c r="B27">
@@ -3460,7 +3477,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>86</v>
       </c>
       <c r="B28">
@@ -3474,7 +3491,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
       <c r="B29">
@@ -3488,7 +3505,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>93</v>
       </c>
       <c r="B30">
@@ -3502,7 +3519,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>91</v>
       </c>
       <c r="B31">
@@ -3516,7 +3533,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>92</v>
       </c>
       <c r="B32">
@@ -3530,7 +3547,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>109</v>
       </c>
       <c r="B33">
@@ -3544,7 +3561,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>145</v>
       </c>
       <c r="B34">
@@ -3558,7 +3575,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>101</v>
       </c>
       <c r="B35">
@@ -3572,7 +3589,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>165</v>
       </c>
       <c r="B36">
@@ -3586,7 +3603,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>107</v>
       </c>
       <c r="B37">
@@ -3600,7 +3617,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>98</v>
       </c>
       <c r="B38">
@@ -3614,7 +3631,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>106</v>
       </c>
       <c r="B39">
@@ -3628,7 +3645,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>108</v>
       </c>
       <c r="B40">
@@ -3642,7 +3659,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>104</v>
       </c>
       <c r="B41">
@@ -3656,7 +3673,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>111</v>
       </c>
       <c r="B42">
@@ -3670,7 +3687,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>110</v>
       </c>
       <c r="B43">
@@ -3684,7 +3701,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>113</v>
       </c>
       <c r="B44">
@@ -3698,7 +3715,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>105</v>
       </c>
       <c r="B45">
@@ -3712,7 +3729,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>102</v>
       </c>
       <c r="B46">
@@ -3726,7 +3743,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>166</v>
       </c>
       <c r="B47">
@@ -3740,7 +3757,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
       <c r="B48">
@@ -3754,7 +3771,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>99</v>
       </c>
       <c r="B49">
@@ -3768,7 +3785,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>100</v>
       </c>
       <c r="B50">
@@ -3782,7 +3799,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>117</v>
       </c>
       <c r="B51">
@@ -3796,7 +3813,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>129</v>
       </c>
       <c r="B52">
@@ -3810,7 +3827,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>120</v>
       </c>
       <c r="B53">
@@ -3824,7 +3841,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>125</v>
       </c>
       <c r="B54">
@@ -3838,7 +3855,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>167</v>
       </c>
       <c r="B55">
@@ -3852,7 +3869,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>168</v>
       </c>
       <c r="B56">
@@ -3866,7 +3883,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>161</v>
       </c>
       <c r="B57">
@@ -3880,7 +3897,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>169</v>
       </c>
       <c r="B58">
@@ -3894,7 +3911,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>170</v>
       </c>
       <c r="B59">
@@ -3908,7 +3925,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>171</v>
       </c>
       <c r="B60">
@@ -3922,7 +3939,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>172</v>
       </c>
       <c r="B61">
@@ -3936,7 +3953,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>144</v>
       </c>
       <c r="B62">
@@ -3950,7 +3967,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>173</v>
       </c>
       <c r="B63">
@@ -3964,7 +3981,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>174</v>
       </c>
       <c r="B64">
@@ -3978,7 +3995,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>175</v>
       </c>
       <c r="B65">
@@ -3992,7 +4009,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>176</v>
       </c>
       <c r="B66">
@@ -4006,7 +4023,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>156</v>
       </c>
       <c r="B67">
@@ -4020,7 +4037,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>177</v>
       </c>
       <c r="B68">
@@ -4034,7 +4051,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>132</v>
       </c>
       <c r="B69">
@@ -4048,7 +4065,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>133</v>
       </c>
       <c r="B70">
@@ -4062,7 +4079,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>178</v>
       </c>
       <c r="B71">
@@ -4076,7 +4093,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>179</v>
       </c>
       <c r="B72">
@@ -4090,7 +4107,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>180</v>
       </c>
       <c r="B73">
@@ -4104,7 +4121,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>181</v>
       </c>
       <c r="B74">
@@ -4118,7 +4135,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>182</v>
       </c>
       <c r="B75">
@@ -4132,7 +4149,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>130</v>
       </c>
       <c r="B76">
@@ -4146,7 +4163,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>183</v>
       </c>
       <c r="B77">
@@ -4160,7 +4177,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>184</v>
       </c>
       <c r="B78">
@@ -4174,7 +4191,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>185</v>
       </c>
       <c r="B79">
@@ -4188,7 +4205,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>186</v>
       </c>
       <c r="B80">
@@ -4202,7 +4219,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>187</v>
       </c>
       <c r="B81">
@@ -4216,7 +4233,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>188</v>
       </c>
       <c r="B82">
@@ -4230,7 +4247,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>189</v>
       </c>
       <c r="B83">
@@ -4244,7 +4261,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>190</v>
       </c>
       <c r="B84">
@@ -4294,7 +4311,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -4308,7 +4325,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
       <c r="B3">
@@ -4322,7 +4339,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4">
@@ -4336,7 +4353,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
       <c r="B5">
@@ -4350,7 +4367,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -4364,7 +4381,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7">
@@ -4378,7 +4395,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8">
@@ -4392,7 +4409,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9">
@@ -4406,7 +4423,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10">
@@ -4420,7 +4437,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11">
@@ -4434,7 +4451,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12">
@@ -4448,7 +4465,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>72</v>
       </c>
       <c r="B13">
@@ -4462,7 +4479,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14">
@@ -4476,7 +4493,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="B15">
@@ -4490,7 +4507,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>75</v>
       </c>
       <c r="B16">
@@ -4504,7 +4521,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>78</v>
       </c>
       <c r="B17">
@@ -4518,7 +4535,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>79</v>
       </c>
       <c r="B18">
@@ -4532,7 +4549,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
       <c r="B19">
@@ -4546,7 +4563,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>81</v>
       </c>
       <c r="B20">
@@ -4560,7 +4577,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>82</v>
       </c>
       <c r="B21">
@@ -4574,7 +4591,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>83</v>
       </c>
       <c r="B22">
@@ -4588,7 +4605,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>84</v>
       </c>
       <c r="B23">
@@ -4602,7 +4619,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>85</v>
       </c>
       <c r="B24">
@@ -4616,7 +4633,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
       <c r="B25">
@@ -4630,7 +4647,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26">
@@ -4644,7 +4661,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>88</v>
       </c>
       <c r="B27">
@@ -4658,7 +4675,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>89</v>
       </c>
       <c r="B28">
@@ -4672,7 +4689,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>90</v>
       </c>
       <c r="B29">
@@ -4686,7 +4703,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>91</v>
       </c>
       <c r="B30">
@@ -4700,7 +4717,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>92</v>
       </c>
       <c r="B31">
@@ -4714,7 +4731,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>93</v>
       </c>
       <c r="B32">
@@ -4728,7 +4745,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>94</v>
       </c>
       <c r="B33">
@@ -4742,7 +4759,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>95</v>
       </c>
       <c r="B34">
@@ -4756,7 +4773,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>96</v>
       </c>
       <c r="B35">
@@ -4770,7 +4787,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>97</v>
       </c>
       <c r="B36">
@@ -4784,7 +4801,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>98</v>
       </c>
       <c r="B37">
@@ -4798,7 +4815,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>99</v>
       </c>
       <c r="B38">
@@ -4812,7 +4829,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>100</v>
       </c>
       <c r="B39">
@@ -4826,7 +4843,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>101</v>
       </c>
       <c r="B40">
@@ -4840,7 +4857,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>102</v>
       </c>
       <c r="B41">
@@ -4854,7 +4871,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>103</v>
       </c>
       <c r="B42">
@@ -4868,7 +4885,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>104</v>
       </c>
       <c r="B43">
@@ -4882,7 +4899,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>105</v>
       </c>
       <c r="B44">
@@ -4896,7 +4913,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>106</v>
       </c>
       <c r="B45">
@@ -4910,7 +4927,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>107</v>
       </c>
       <c r="B46">
@@ -4924,7 +4941,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>108</v>
       </c>
       <c r="B47">
@@ -4938,7 +4955,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>109</v>
       </c>
       <c r="B48">
@@ -4952,7 +4969,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>110</v>
       </c>
       <c r="B49">
@@ -4966,7 +4983,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>111</v>
       </c>
       <c r="B50">
@@ -4980,7 +4997,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>112</v>
       </c>
       <c r="B51">
@@ -4994,7 +5011,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>113</v>
       </c>
       <c r="B52">
@@ -5008,7 +5025,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>114</v>
       </c>
       <c r="B53">
@@ -5022,7 +5039,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>115</v>
       </c>
       <c r="B54">
@@ -5036,7 +5053,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>116</v>
       </c>
       <c r="B55">
@@ -5050,7 +5067,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>117</v>
       </c>
       <c r="B56">
@@ -5064,7 +5081,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>118</v>
       </c>
       <c r="B57">
@@ -5078,7 +5095,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>119</v>
       </c>
       <c r="B58">
@@ -5092,7 +5109,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
       <c r="B59">
@@ -5142,7 +5159,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -5156,7 +5173,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3">
@@ -5170,7 +5187,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
       <c r="B4">
@@ -5184,7 +5201,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>58</v>
       </c>
       <c r="B5">
@@ -5198,7 +5215,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6">
@@ -5212,7 +5229,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
       <c r="B7">
@@ -5226,7 +5243,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>70</v>
       </c>
       <c r="B8">
@@ -5240,7 +5257,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>71</v>
       </c>
       <c r="B9">
@@ -5254,7 +5271,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>75</v>
       </c>
       <c r="B10">
@@ -5268,7 +5285,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
       <c r="B11">
@@ -5282,7 +5299,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>79</v>
       </c>
       <c r="B12">
@@ -5296,7 +5313,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
       <c r="B13">
@@ -5310,7 +5327,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>80</v>
       </c>
       <c r="B14">
@@ -5324,7 +5341,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>121</v>
       </c>
       <c r="B15">
@@ -5338,7 +5355,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>83</v>
       </c>
       <c r="B16">
@@ -5352,7 +5369,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>84</v>
       </c>
       <c r="B17">
@@ -5366,7 +5383,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>78</v>
       </c>
       <c r="B18">
@@ -5380,7 +5397,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>87</v>
       </c>
       <c r="B19">
@@ -5394,7 +5411,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>88</v>
       </c>
       <c r="B20">
@@ -5408,7 +5425,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>85</v>
       </c>
       <c r="B21">
@@ -5422,7 +5439,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>124</v>
       </c>
       <c r="B22">
@@ -5436,7 +5453,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>123</v>
       </c>
       <c r="B23">
@@ -5450,7 +5467,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>89</v>
       </c>
       <c r="B24">
@@ -5464,7 +5481,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>86</v>
       </c>
       <c r="B25">
@@ -5478,7 +5495,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>90</v>
       </c>
       <c r="B26">
@@ -5492,7 +5509,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>91</v>
       </c>
       <c r="B27">
@@ -5506,7 +5523,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>92</v>
       </c>
       <c r="B28">
@@ -5520,7 +5537,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>93</v>
       </c>
       <c r="B29">
@@ -5534,7 +5551,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>94</v>
       </c>
       <c r="B30">
@@ -5548,7 +5565,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>145</v>
       </c>
       <c r="B31">
@@ -5562,7 +5579,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>96</v>
       </c>
       <c r="B32">
@@ -5576,7 +5593,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>97</v>
       </c>
       <c r="B33">
@@ -5590,7 +5607,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>99</v>
       </c>
       <c r="B34">
@@ -5604,7 +5621,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35">
@@ -5618,7 +5635,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>131</v>
       </c>
       <c r="B36">
@@ -5632,7 +5649,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>107</v>
       </c>
       <c r="B37">
@@ -5646,7 +5663,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>108</v>
       </c>
       <c r="B38">
@@ -5660,7 +5677,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>104</v>
       </c>
       <c r="B39">
@@ -5674,7 +5691,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>106</v>
       </c>
       <c r="B40">
@@ -5688,7 +5705,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>109</v>
       </c>
       <c r="B41">
@@ -5702,7 +5719,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>113</v>
       </c>
       <c r="B42">
@@ -5716,7 +5733,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>111</v>
       </c>
       <c r="B43">
@@ -5730,7 +5747,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>110</v>
       </c>
       <c r="B44">
@@ -5744,7 +5761,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>155</v>
       </c>
       <c r="B45">
@@ -5758,7 +5775,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>112</v>
       </c>
       <c r="B46">
@@ -5772,7 +5789,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>156</v>
       </c>
       <c r="B47">
@@ -5786,7 +5803,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>100</v>
       </c>
       <c r="B48">
@@ -5800,7 +5817,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>119</v>
       </c>
       <c r="B49">
@@ -5814,7 +5831,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>117</v>
       </c>
       <c r="B50">
@@ -5828,7 +5845,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>129</v>
       </c>
       <c r="B51">
@@ -5842,7 +5859,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>120</v>
       </c>
       <c r="B52">
@@ -5856,7 +5873,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>125</v>
       </c>
       <c r="B53">
@@ -5870,7 +5887,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>157</v>
       </c>
       <c r="B54">
@@ -5884,7 +5901,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>158</v>
       </c>
       <c r="B55">
@@ -5898,7 +5915,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>159</v>
       </c>
       <c r="B56">
@@ -5912,7 +5929,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>160</v>
       </c>
       <c r="B57">
@@ -5926,7 +5943,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>161</v>
       </c>
       <c r="B58">
@@ -5940,7 +5957,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>162</v>
       </c>
       <c r="B59">
@@ -5954,7 +5971,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>163</v>
       </c>
       <c r="B60">
@@ -5968,7 +5985,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>164</v>
       </c>
       <c r="B61">
@@ -6018,7 +6035,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -6032,7 +6049,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -6046,7 +6063,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
@@ -6060,7 +6077,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5">
@@ -6074,7 +6091,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
       <c r="B6">
@@ -6088,7 +6105,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="B7">
@@ -6102,7 +6119,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8">
@@ -6116,7 +6133,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -6130,7 +6147,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
       <c r="B10">
@@ -6144,7 +6161,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
       <c r="B11">
@@ -6158,7 +6175,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
       <c r="B12">
@@ -6172,7 +6189,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>140</v>
       </c>
       <c r="B13">
@@ -6186,7 +6203,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>69</v>
       </c>
       <c r="B14">
@@ -6200,7 +6217,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>141</v>
       </c>
       <c r="B15">
@@ -6214,7 +6231,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>70</v>
       </c>
       <c r="B16">
@@ -6228,7 +6245,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>73</v>
       </c>
       <c r="B17">
@@ -6242,7 +6259,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>74</v>
       </c>
       <c r="B18">
@@ -6256,7 +6273,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
       <c r="B19">
@@ -6270,7 +6287,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20">
@@ -6284,7 +6301,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -6298,7 +6315,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -6312,7 +6329,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>80</v>
       </c>
       <c r="B23">
@@ -6326,7 +6343,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24">
@@ -6340,7 +6357,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
       <c r="B25">
@@ -6354,7 +6371,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
       <c r="B26">
@@ -6368,7 +6385,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>117</v>
       </c>
       <c r="B27">
@@ -6382,7 +6399,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>85</v>
       </c>
       <c r="B28">
@@ -6396,7 +6413,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29">
@@ -6410,7 +6427,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>89</v>
       </c>
       <c r="B30">
@@ -6424,7 +6441,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>86</v>
       </c>
       <c r="B31">
@@ -6438,7 +6455,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>90</v>
       </c>
       <c r="B32">
@@ -6452,7 +6469,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>91</v>
       </c>
       <c r="B33">
@@ -6466,7 +6483,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>144</v>
       </c>
       <c r="B34">
@@ -6480,7 +6497,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>126</v>
       </c>
       <c r="B35">
@@ -6494,7 +6511,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>94</v>
       </c>
       <c r="B36">
@@ -6508,7 +6525,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>145</v>
       </c>
       <c r="B37">
@@ -6522,7 +6539,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38">
@@ -6536,7 +6553,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>97</v>
       </c>
       <c r="B39">
@@ -6559,9 +6576,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8E75DF-D057-4030-A9D7-B955DBD8BF0E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6586,7 +6605,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -6600,7 +6619,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3">
@@ -6614,7 +6633,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -6628,7 +6647,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
@@ -6642,7 +6661,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -6656,7 +6675,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7">
@@ -6670,7 +6689,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
@@ -6684,7 +6703,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
@@ -6698,7 +6717,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>138</v>
       </c>
       <c r="B10">
@@ -6712,7 +6731,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>146</v>
       </c>
       <c r="B11">
@@ -6726,7 +6745,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
       <c r="B12">
@@ -6740,7 +6759,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
       <c r="B13">
@@ -6754,7 +6773,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
       <c r="B14">
@@ -6768,7 +6787,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
       <c r="B15">
@@ -6782,7 +6801,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16">
@@ -6796,7 +6815,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
@@ -6810,7 +6829,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18">
@@ -6824,7 +6843,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>51</v>
       </c>
       <c r="B19">
@@ -6838,7 +6857,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>197</v>
       </c>
       <c r="B20">
@@ -6852,7 +6871,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
       <c r="B21">
@@ -6866,7 +6885,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22">
@@ -6880,7 +6899,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
       <c r="B23">
@@ -6894,7 +6913,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>137</v>
       </c>
       <c r="B24">
@@ -6908,7 +6927,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25">
@@ -6922,7 +6941,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
       <c r="B26">
@@ -6936,7 +6955,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>66</v>
       </c>
       <c r="B27">
@@ -6950,7 +6969,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
       <c r="B28">
@@ -6964,7 +6983,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>139</v>
       </c>
       <c r="B29">
@@ -6978,7 +6997,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>198</v>
       </c>
       <c r="B30">
@@ -6992,7 +7011,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31">
@@ -7006,7 +7025,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>150</v>
       </c>
       <c r="B32">
@@ -7020,7 +7039,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>149</v>
       </c>
       <c r="B33">
@@ -7034,7 +7053,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>140</v>
       </c>
       <c r="B34">
@@ -7048,7 +7067,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>199</v>
       </c>
       <c r="B35">
@@ -7062,7 +7081,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>200</v>
       </c>
       <c r="B36">
@@ -7076,7 +7095,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>151</v>
       </c>
       <c r="B37">
@@ -7090,7 +7109,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>62</v>
       </c>
       <c r="B38">
@@ -7104,7 +7123,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>142</v>
       </c>
       <c r="B39">
@@ -7118,7 +7137,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>201</v>
       </c>
       <c r="B40">
@@ -7132,7 +7151,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>64</v>
       </c>
       <c r="B41">
@@ -7146,7 +7165,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>69</v>
       </c>
       <c r="B42">
@@ -7160,7 +7179,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>141</v>
       </c>
       <c r="B43">
@@ -7174,7 +7193,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>202</v>
       </c>
       <c r="B44">
@@ -7188,7 +7207,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>70</v>
       </c>
       <c r="B45">
@@ -7202,7 +7221,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>71</v>
       </c>
       <c r="B46">
@@ -7216,7 +7235,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>203</v>
       </c>
       <c r="B47">
@@ -7230,7 +7249,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>75</v>
       </c>
       <c r="B48">
@@ -7244,7 +7263,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>72</v>
       </c>
       <c r="B49">
@@ -7255,6 +7274,21 @@
       </c>
       <c r="D49">
         <v>9.1414390170438582E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_big_spender_voting_power[weight])</f>
+        <v>106607</v>
+      </c>
+      <c r="C50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_big_spender_voting_power[weight_fraction])</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="D50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_big_spender_voting_power[power])</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7267,9 +7301,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ABFF746-9205-43A1-BF09-687D3050C28E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7294,7 +7330,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -7308,7 +7344,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -7322,7 +7358,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -7336,7 +7372,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
       <c r="B5">
@@ -7350,7 +7386,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -7364,7 +7400,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
@@ -7378,7 +7414,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
@@ -7392,7 +7428,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9">
@@ -7406,7 +7442,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>26</v>
       </c>
       <c r="B10">
@@ -7420,7 +7456,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>135</v>
       </c>
       <c r="B11">
@@ -7434,7 +7470,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
@@ -7448,7 +7484,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="B13">
@@ -7462,7 +7498,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
       <c r="B14">
@@ -7476,7 +7512,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
@@ -7490,7 +7526,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>146</v>
       </c>
       <c r="B16">
@@ -7504,7 +7540,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
@@ -7518,7 +7554,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
       <c r="B18">
@@ -7532,7 +7568,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>40</v>
       </c>
       <c r="B19">
@@ -7546,7 +7582,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>55</v>
       </c>
       <c r="B20">
@@ -7560,7 +7596,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21">
@@ -7574,7 +7610,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
       <c r="B22">
@@ -7588,7 +7624,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
       <c r="B23">
@@ -7602,7 +7638,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>147</v>
       </c>
       <c r="B24">
@@ -7616,7 +7652,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
       <c r="B25">
@@ -7630,7 +7666,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>56</v>
       </c>
       <c r="B26">
@@ -7644,7 +7680,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>148</v>
       </c>
       <c r="B27">
@@ -7658,7 +7694,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
       <c r="B28">
@@ -7672,7 +7708,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>66</v>
       </c>
       <c r="B29">
@@ -7686,7 +7722,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
       <c r="B30">
@@ -7700,7 +7736,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
       <c r="B31">
@@ -7714,7 +7750,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>149</v>
       </c>
       <c r="B32">
@@ -7728,7 +7764,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>60</v>
       </c>
       <c r="B33">
@@ -7742,7 +7778,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>150</v>
       </c>
       <c r="B34">
@@ -7756,7 +7792,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>151</v>
       </c>
       <c r="B35">
@@ -7770,7 +7806,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>62</v>
       </c>
       <c r="B36">
@@ -7784,7 +7820,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>63</v>
       </c>
       <c r="B37">
@@ -7798,7 +7834,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>64</v>
       </c>
       <c r="B38">
@@ -7812,7 +7848,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>152</v>
       </c>
       <c r="B39">
@@ -7826,7 +7862,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>69</v>
       </c>
       <c r="B40">
@@ -7840,7 +7876,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>153</v>
       </c>
       <c r="B41">
@@ -7854,7 +7890,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>73</v>
       </c>
       <c r="B42">
@@ -7868,7 +7904,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>70</v>
       </c>
       <c r="B43">
@@ -7882,7 +7918,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>71</v>
       </c>
       <c r="B44">
@@ -7896,7 +7932,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>75</v>
       </c>
       <c r="B45">
@@ -7910,7 +7946,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>72</v>
       </c>
       <c r="B46">
@@ -7924,7 +7960,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>79</v>
       </c>
       <c r="B47">
@@ -7938,7 +7974,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>74</v>
       </c>
       <c r="B48">
@@ -7952,7 +7988,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>154</v>
       </c>
       <c r="B49">
@@ -7963,6 +7999,21 @@
       </c>
       <c r="D49">
         <v>1.0146486166000624E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_medium_spender_voting_power[weight])</f>
+        <v>96850</v>
+      </c>
+      <c r="C50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_medium_spender_voting_power[weight_fraction])</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="D50">
+        <f>SUBTOTAL(109,_20240108_kusama_90_days_medium_spender_voting_power[power])</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8053,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -8016,7 +8067,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>135</v>
       </c>
       <c r="B3">
@@ -8030,7 +8081,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4">
@@ -8044,7 +8095,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -8058,7 +8109,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -8072,7 +8123,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
       <c r="B7">
@@ -8086,7 +8137,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
       <c r="B8">
@@ -8100,7 +8151,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9">
@@ -8114,7 +8165,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10">
@@ -8128,7 +8179,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11">
@@ -8142,7 +8193,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
@@ -8156,7 +8207,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
       <c r="B13">
@@ -8170,7 +8221,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>51</v>
       </c>
       <c r="B14">
@@ -8184,7 +8235,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15">
@@ -8198,7 +8249,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
       <c r="B16">
@@ -8212,7 +8263,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>66</v>
       </c>
       <c r="B17">
@@ -8226,7 +8277,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -8240,7 +8291,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>60</v>
       </c>
       <c r="B19">
@@ -8254,7 +8305,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>28</v>
       </c>
       <c r="B20">
@@ -8268,7 +8319,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21">
@@ -8282,7 +8333,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>62</v>
       </c>
       <c r="B22">
@@ -8296,7 +8347,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
       <c r="B23">
@@ -8310,7 +8361,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24">
@@ -8324,7 +8375,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>63</v>
       </c>
       <c r="B25">
@@ -8338,7 +8389,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>64</v>
       </c>
       <c r="B26">
@@ -8352,7 +8403,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>69</v>
       </c>
       <c r="B27">
@@ -8366,7 +8417,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>70</v>
       </c>
       <c r="B28">
@@ -8380,7 +8431,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>71</v>
       </c>
       <c r="B29">
@@ -8394,7 +8445,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>74</v>
       </c>
       <c r="B30">
@@ -8408,7 +8459,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>91</v>
       </c>
       <c r="B31">
@@ -8422,7 +8473,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>75</v>
       </c>
       <c r="B32">
@@ -8436,7 +8487,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33">
@@ -8450,7 +8501,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>79</v>
       </c>
       <c r="B34">
@@ -8464,7 +8515,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>80</v>
       </c>
       <c r="B35">
@@ -8478,7 +8529,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>92</v>
       </c>
       <c r="B36">
@@ -8492,7 +8543,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>121</v>
       </c>
       <c r="B37">
@@ -8506,7 +8557,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>83</v>
       </c>
       <c r="B38">
@@ -8520,7 +8571,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>84</v>
       </c>
       <c r="B39">
@@ -8570,7 +8621,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -8584,7 +8635,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
       <c r="B3">
@@ -8598,7 +8649,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>51</v>
       </c>
       <c r="B4">
@@ -8612,7 +8663,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>66</v>
       </c>
       <c r="B5">
@@ -8626,7 +8677,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -8640,7 +8691,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
       <c r="B7">
@@ -8654,7 +8705,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
       <c r="B8">
@@ -8668,7 +8719,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>62</v>
       </c>
       <c r="B9">
@@ -8682,7 +8733,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>64</v>
       </c>
       <c r="B10">
@@ -8696,7 +8747,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>69</v>
       </c>
       <c r="B11">
@@ -8710,7 +8761,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>70</v>
       </c>
       <c r="B12">
@@ -8724,7 +8775,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>71</v>
       </c>
       <c r="B13">
@@ -8738,7 +8789,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>74</v>
       </c>
       <c r="B14">
@@ -8752,7 +8803,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="B15">
@@ -8766,7 +8817,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>73</v>
       </c>
       <c r="B16">
@@ -8780,7 +8831,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>77</v>
       </c>
       <c r="B17">
@@ -8794,7 +8845,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>75</v>
       </c>
       <c r="B18">
@@ -8808,7 +8859,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>78</v>
       </c>
       <c r="B19">
@@ -8822,7 +8873,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>79</v>
       </c>
       <c r="B20">
@@ -8836,7 +8887,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>81</v>
       </c>
       <c r="B21">
@@ -8850,7 +8901,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>82</v>
       </c>
       <c r="B22">
@@ -8864,7 +8915,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>121</v>
       </c>
       <c r="B23">
@@ -8878,7 +8929,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24">
@@ -8892,7 +8943,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>84</v>
       </c>
       <c r="B25">
@@ -8906,7 +8957,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>86</v>
       </c>
       <c r="B26">
@@ -8920,7 +8971,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>87</v>
       </c>
       <c r="B27">
@@ -8934,7 +8985,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>103</v>
       </c>
       <c r="B28">
@@ -8948,7 +8999,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
       <c r="B29">
@@ -8962,7 +9013,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>85</v>
       </c>
       <c r="B30">
@@ -8976,7 +9027,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>123</v>
       </c>
       <c r="B31">
@@ -8990,7 +9041,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32">
@@ -9004,7 +9055,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>196</v>
       </c>
       <c r="B33">
@@ -9018,7 +9069,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34">
@@ -9032,7 +9083,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>91</v>
       </c>
       <c r="B35">
@@ -9046,7 +9097,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>57</v>
       </c>
       <c r="B36">
@@ -9060,7 +9111,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>92</v>
       </c>
       <c r="B37">
@@ -9074,7 +9125,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>93</v>
       </c>
       <c r="B38">
@@ -9088,7 +9139,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>105</v>
       </c>
       <c r="B39">
@@ -9102,7 +9153,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>94</v>
       </c>
       <c r="B40">
@@ -9116,7 +9167,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>109</v>
       </c>
       <c r="B41">
@@ -9130,7 +9181,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>145</v>
       </c>
       <c r="B42">
@@ -9144,7 +9195,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43">
@@ -9158,7 +9209,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44">
@@ -9172,7 +9223,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>98</v>
       </c>
       <c r="B45">
@@ -9186,7 +9237,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>97</v>
       </c>
       <c r="B46">
@@ -9200,7 +9251,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>101</v>
       </c>
       <c r="B47">
@@ -9214,7 +9265,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
       <c r="B48">
@@ -9228,7 +9279,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>194</v>
       </c>
       <c r="B49">
@@ -9242,7 +9293,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>108</v>
       </c>
       <c r="B50">
@@ -9256,7 +9307,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>102</v>
       </c>
       <c r="B51">
@@ -9270,7 +9321,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>106</v>
       </c>
       <c r="B52">
@@ -9284,7 +9335,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>107</v>
       </c>
       <c r="B53">
@@ -9298,7 +9349,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
       <c r="B54">
@@ -9312,7 +9363,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>113</v>
       </c>
       <c r="B55">
@@ -9326,7 +9377,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>111</v>
       </c>
       <c r="B56">
@@ -9340,7 +9391,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>112</v>
       </c>
       <c r="B57">
@@ -9354,7 +9405,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>110</v>
       </c>
       <c r="B58">
@@ -9368,7 +9419,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
       <c r="B59">
@@ -9382,7 +9433,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
       <c r="B60">
@@ -9396,7 +9447,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>155</v>
       </c>
       <c r="B61">
@@ -9410,7 +9461,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>122</v>
       </c>
       <c r="B62">
@@ -9424,7 +9475,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>115</v>
       </c>
       <c r="B63">
@@ -9438,7 +9489,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>116</v>
       </c>
       <c r="B64">
@@ -9452,7 +9503,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>118</v>
       </c>
       <c r="B65">
@@ -9466,7 +9517,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>117</v>
       </c>
       <c r="B66">
@@ -9480,7 +9531,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>100</v>
       </c>
       <c r="B67">
@@ -9494,7 +9545,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>119</v>
       </c>
       <c r="B68">
@@ -9508,7 +9559,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>120</v>
       </c>
       <c r="B69">
@@ -9522,7 +9573,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>129</v>
       </c>
       <c r="B70">
@@ -9536,7 +9587,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>156</v>
       </c>
       <c r="B71">
@@ -9550,7 +9601,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>125</v>
       </c>
       <c r="B72">
@@ -9564,7 +9615,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>130</v>
       </c>
       <c r="B73">
@@ -9578,7 +9629,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>131</v>
       </c>
       <c r="B74">
@@ -9592,7 +9643,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>132</v>
       </c>
       <c r="B75">
@@ -9642,7 +9693,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -9656,7 +9707,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>51</v>
       </c>
       <c r="B3">
@@ -9670,7 +9721,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
       <c r="B4">
@@ -9684,7 +9735,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5">
@@ -9698,7 +9749,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6">
@@ -9712,7 +9763,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>58</v>
       </c>
       <c r="B7">
@@ -9726,7 +9777,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8">
@@ -9740,7 +9791,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>64</v>
       </c>
       <c r="B9">
@@ -9754,7 +9805,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
       <c r="B10">
@@ -9768,7 +9819,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>70</v>
       </c>
       <c r="B11">
@@ -9782,7 +9833,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>71</v>
       </c>
       <c r="B12">
@@ -9796,7 +9847,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>74</v>
       </c>
       <c r="B13">
@@ -9810,7 +9861,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
       <c r="B14">
@@ -9824,7 +9875,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
       <c r="B15">
@@ -9838,7 +9889,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>91</v>
       </c>
       <c r="B16">
@@ -9852,7 +9903,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>119</v>
       </c>
       <c r="B17">
@@ -9866,7 +9917,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>77</v>
       </c>
       <c r="B18">
@@ -9880,7 +9931,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>75</v>
       </c>
       <c r="B19">
@@ -9894,7 +9945,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>92</v>
       </c>
       <c r="B20">
@@ -9908,7 +9959,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>79</v>
       </c>
       <c r="B21">
@@ -9922,7 +9973,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
       <c r="B22">
@@ -9936,7 +9987,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>83</v>
       </c>
       <c r="B23">
@@ -9950,7 +10001,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>84</v>
       </c>
       <c r="B24">
@@ -9964,7 +10015,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>78</v>
       </c>
       <c r="B25">
@@ -9978,7 +10029,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26">
@@ -9992,7 +10043,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>98</v>
       </c>
       <c r="B27">
@@ -10006,7 +10057,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>88</v>
       </c>
       <c r="B28">
@@ -10020,7 +10071,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>85</v>
       </c>
       <c r="B29">
@@ -10034,7 +10085,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>122</v>
       </c>
       <c r="B30">
@@ -10048,7 +10099,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>123</v>
       </c>
       <c r="B31">
@@ -10062,7 +10113,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>89</v>
       </c>
       <c r="B32">
@@ -10076,7 +10127,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>86</v>
       </c>
       <c r="B33">
@@ -10090,7 +10141,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>90</v>
       </c>
       <c r="B34">
@@ -10104,7 +10155,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>120</v>
       </c>
       <c r="B35">
@@ -10118,7 +10169,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>124</v>
       </c>
       <c r="B36">
@@ -10132,7 +10183,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>125</v>
       </c>
       <c r="B37">
@@ -10146,7 +10197,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>126</v>
       </c>
       <c r="B38">
@@ -10160,7 +10211,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>94</v>
       </c>
       <c r="B39">
@@ -10174,7 +10225,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>109</v>
       </c>
       <c r="B40">
@@ -10188,7 +10239,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>127</v>
       </c>
       <c r="B41">
@@ -10202,7 +10253,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>105</v>
       </c>
       <c r="B42">
@@ -10216,7 +10267,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
       <c r="B43">
@@ -10230,7 +10281,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>96</v>
       </c>
       <c r="B44">
@@ -10244,7 +10295,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>102</v>
       </c>
       <c r="B45">
@@ -10258,7 +10309,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>97</v>
       </c>
       <c r="B46">
@@ -10272,7 +10323,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>101</v>
       </c>
       <c r="B47">
@@ -10286,7 +10337,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>99</v>
       </c>
       <c r="B48">
@@ -10300,7 +10351,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>100</v>
       </c>
       <c r="B49">
@@ -10314,7 +10365,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>108</v>
       </c>
       <c r="B50">
@@ -10328,7 +10379,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>106</v>
       </c>
       <c r="B51">
@@ -10342,7 +10393,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>107</v>
       </c>
       <c r="B52">
@@ -10356,7 +10407,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>104</v>
       </c>
       <c r="B53">
@@ -10370,7 +10421,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>112</v>
       </c>
       <c r="B54">
@@ -10384,7 +10435,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>111</v>
       </c>
       <c r="B55">
@@ -10398,7 +10449,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>110</v>
       </c>
       <c r="B56">
@@ -10412,7 +10463,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>113</v>
       </c>
       <c r="B57">
@@ -10426,7 +10477,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>128</v>
       </c>
       <c r="B58">
@@ -10440,7 +10491,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>115</v>
       </c>
       <c r="B59">
@@ -10454,7 +10505,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
       <c r="B60">
@@ -10468,7 +10519,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>117</v>
       </c>
       <c r="B61">
@@ -10482,7 +10533,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>129</v>
       </c>
       <c r="B62">
@@ -10496,7 +10547,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+      <c r="A63" t="s">
         <v>130</v>
       </c>
       <c r="B63">
@@ -10510,7 +10561,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+      <c r="A64" t="s">
         <v>131</v>
       </c>
       <c r="B64">
@@ -10524,7 +10575,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>132</v>
       </c>
       <c r="B65">
@@ -10538,7 +10589,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>103</v>
       </c>
       <c r="B66">
@@ -10552,7 +10603,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>133</v>
       </c>
       <c r="B67">
@@ -10566,7 +10617,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>134</v>
       </c>
       <c r="B68">
@@ -10616,7 +10667,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2">
@@ -10630,7 +10681,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
@@ -10644,7 +10695,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -10658,7 +10709,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
@@ -10672,7 +10723,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
@@ -10686,7 +10737,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
@@ -10700,7 +10751,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8">
@@ -10714,7 +10765,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9">
@@ -10728,7 +10779,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
       <c r="B10">
@@ -10742,7 +10793,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
       <c r="B11">
@@ -10756,7 +10807,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12">
@@ -10770,7 +10821,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>138</v>
       </c>
       <c r="B13">
@@ -10784,7 +10835,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -10798,7 +10849,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
       <c r="B15">
@@ -10812,7 +10863,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
@@ -10826,7 +10877,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17">
@@ -10840,7 +10891,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>40</v>
       </c>
       <c r="B18">
@@ -10854,7 +10905,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
       <c r="B19">
@@ -10868,7 +10919,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
       <c r="B20">
@@ -10882,7 +10933,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21">
@@ -10896,7 +10947,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
       <c r="B22">
@@ -10910,7 +10961,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>54</v>
       </c>
       <c r="B23">
@@ -10924,7 +10975,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
       <c r="B24">
@@ -10938,7 +10989,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25">
@@ -10952,7 +11003,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>139</v>
       </c>
       <c r="B26">
@@ -10966,7 +11017,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>60</v>
       </c>
       <c r="B27">
@@ -10980,7 +11031,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>62</v>
       </c>
       <c r="B28">
@@ -10994,7 +11045,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>63</v>
       </c>
       <c r="B29">
@@ -11008,7 +11059,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>140</v>
       </c>
       <c r="B30">
@@ -11022,7 +11073,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>64</v>
       </c>
       <c r="B31">
@@ -11036,7 +11087,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>69</v>
       </c>
       <c r="B32">
@@ -11050,7 +11101,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
       <c r="B33">
@@ -11064,7 +11115,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>142</v>
       </c>
       <c r="B34">
@@ -11078,7 +11129,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>70</v>
       </c>
       <c r="B35">
@@ -11092,7 +11143,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36">
@@ -11106,7 +11157,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>71</v>
       </c>
       <c r="B37">
@@ -11120,7 +11171,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>143</v>
       </c>
       <c r="B38">
@@ -11134,7 +11185,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>73</v>
       </c>
       <c r="B39">
@@ -11148,7 +11199,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>74</v>
       </c>
       <c r="B40">
@@ -11162,7 +11213,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>76</v>
       </c>
       <c r="B41">
@@ -11214,7 +11265,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2">
@@ -11228,7 +11279,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
@@ -11242,7 +11293,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -11256,7 +11307,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
@@ -11270,7 +11321,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
@@ -11284,7 +11335,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
@@ -11298,7 +11349,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8">
@@ -11312,7 +11363,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9">
@@ -11326,7 +11377,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10">
@@ -11340,7 +11391,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -11354,7 +11405,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
       <c r="B12">
@@ -11368,7 +11419,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13">
@@ -11382,7 +11433,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
       <c r="B14">
@@ -11396,7 +11447,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15">
@@ -11410,7 +11461,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
       <c r="B16">
@@ -11424,7 +11475,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17">
@@ -11438,7 +11489,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
@@ -11452,7 +11503,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
@@ -11466,7 +11517,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20">
@@ -11480,7 +11531,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>23</v>
       </c>
       <c r="B21">
@@ -11494,7 +11545,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
       <c r="B22">
@@ -11508,7 +11559,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
       <c r="B23">
@@ -11522,7 +11573,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
       <c r="B24">
@@ -11536,7 +11587,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
       <c r="B25">
@@ -11550,7 +11601,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>28</v>
       </c>
       <c r="B26">
@@ -11564,7 +11615,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
       <c r="B27">
@@ -11578,7 +11629,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28">
@@ -11592,7 +11643,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>31</v>
       </c>
       <c r="B29">
@@ -11606,7 +11657,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
       <c r="B30">
@@ -11620,7 +11671,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>33</v>
       </c>
       <c r="B31">
@@ -11634,7 +11685,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>34</v>
       </c>
       <c r="B32">
@@ -11648,7 +11699,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>35</v>
       </c>
       <c r="B33">
@@ -11662,7 +11713,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>36</v>
       </c>
       <c r="B34">
@@ -11676,7 +11727,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>37</v>
       </c>
       <c r="B35">
@@ -11690,7 +11741,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>38</v>
       </c>
       <c r="B36">
@@ -11704,7 +11755,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>39</v>
       </c>
       <c r="B37">
@@ -11718,7 +11769,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
       <c r="B38">
@@ -11732,7 +11783,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="B39">
@@ -11746,7 +11797,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>42</v>
       </c>
       <c r="B40">
@@ -11760,7 +11811,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>43</v>
       </c>
       <c r="B41">
@@ -11774,7 +11825,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>44</v>
       </c>
       <c r="B42">
@@ -11788,7 +11839,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>45</v>
       </c>
       <c r="B43">
@@ -11802,7 +11853,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>46</v>
       </c>
       <c r="B44">
@@ -11816,7 +11867,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>47</v>
       </c>
       <c r="B45">
@@ -11830,7 +11881,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>48</v>
       </c>
       <c r="B46">
@@ -11844,7 +11895,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
       <c r="B47">
@@ -11858,7 +11909,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48">
@@ -11872,7 +11923,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
       <c r="B49">
@@ -11886,7 +11937,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50">
@@ -11900,7 +11951,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51">
@@ -11914,7 +11965,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="A52" t="s">
         <v>54</v>
       </c>
       <c r="B52">
@@ -11928,7 +11979,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
         <v>55</v>
       </c>
       <c r="B53">
@@ -11942,7 +11993,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54">
@@ -11956,7 +12007,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55">
@@ -11970,7 +12021,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+      <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56">
@@ -11984,7 +12035,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+      <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57">
@@ -11998,7 +12049,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+      <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58">
@@ -12012,7 +12063,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+      <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59">
@@ -12026,7 +12077,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="A60" t="s">
         <v>62</v>
       </c>
       <c r="B60">
@@ -12040,7 +12091,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" t="s">
         <v>63</v>
       </c>
       <c r="B61">
@@ -12054,7 +12105,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" t="s">
         <v>64</v>
       </c>
       <c r="B62">
@@ -12104,7 +12155,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2">
@@ -12118,7 +12169,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3">
@@ -12132,7 +12183,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
@@ -12146,7 +12197,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
@@ -12160,7 +12211,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
@@ -12174,7 +12225,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
@@ -12188,7 +12239,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
@@ -12202,7 +12253,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
       <c r="B9">
@@ -12216,7 +12267,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10">
@@ -12230,7 +12281,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11">
@@ -12244,7 +12295,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12">
@@ -12258,7 +12309,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>41</v>
       </c>
       <c r="B13">
@@ -12272,7 +12323,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14">
@@ -12286,7 +12337,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>51</v>
       </c>
       <c r="B15">
@@ -12300,7 +12351,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
       <c r="B16">
@@ -12314,7 +12365,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>204</v>
       </c>
       <c r="B17">
@@ -12328,7 +12379,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
       <c r="B18">
@@ -12342,7 +12393,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
       <c r="B19">
@@ -12356,7 +12407,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>69</v>
       </c>
       <c r="B20">
@@ -12370,7 +12421,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>70</v>
       </c>
       <c r="B21">
@@ -12384,7 +12435,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>71</v>
       </c>
       <c r="B22">
@@ -12398,7 +12449,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>76</v>
       </c>
       <c r="B23">
@@ -12412,7 +12463,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>91</v>
       </c>
       <c r="B24">
@@ -12426,7 +12477,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>57</v>
       </c>
       <c r="B25">
@@ -12440,7 +12491,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>77</v>
       </c>
       <c r="B26">
@@ -12454,7 +12505,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>75</v>
       </c>
       <c r="B27">
@@ -12468,7 +12519,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>79</v>
       </c>
       <c r="B28">
@@ -12482,7 +12533,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>80</v>
       </c>
       <c r="B29">
@@ -12496,7 +12547,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>83</v>
       </c>
       <c r="B30">
@@ -12510,7 +12561,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
       <c r="B31">
